--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Desktop\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692BCE2E-281C-4743-9CB6-5E923E092E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A531EDA-23E8-401A-9B85-FAB7A190B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A257C043-C230-457B-A571-9896D12BE7EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Severity</t>
   </si>
@@ -64,15 +64,6 @@
     <t>Bug Report</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>data_access/employee_dal</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -98,6 +89,12 @@
   </si>
   <si>
     <t>Person who fixed bug</t>
+  </si>
+  <si>
+    <t>Lesley</t>
+  </si>
+  <si>
+    <t>api/tickets.html</t>
   </si>
 </sst>
 </file>
@@ -165,13 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -179,307 +176,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF4633"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF4633"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF4633"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF4633"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF4633"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF4633"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="45">
-          <stop position="0">
-            <color theme="8" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="8" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -521,6 +218,66 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF4633"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="45">
+          <stop position="0">
+            <color theme="8" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="8" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,7 +298,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{69F85C12-4D7F-4B7D-A279-65C745E9A516}" name="Table7" displayName="Table7" ref="A2:H31" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{69F85C12-4D7F-4B7D-A279-65C745E9A516}" name="Table7" displayName="Table7" ref="A2:H31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A2:H31" xr:uid="{69F85C12-4D7F-4B7D-A279-65C745E9A516}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -553,14 +310,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6FCA1D8E-3581-4CE4-B668-7DDDAC329C4D}" name="Bug Number" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{8D69C21B-A7BB-4304-8301-236987C121AD}" name="Severity" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{5C150876-22FD-4121-A490-99B46CBB6036}" name="Priority" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{EB1438C6-654F-40BA-9998-31E8D6A743B5}" name="File Path" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{330FB4C8-6568-4F4B-A46C-D9CDF1B7D1DC}" name="Line Number" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{BCD87986-722D-4A23-846E-92BCC7B44324}" name="Reporter" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{FCCBA51F-A4D8-457C-9F84-8B23511D7001}" name="Status" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{D4F8EA49-817B-41C3-9641-E9AAC20813B0}" name="Fixer" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{6FCA1D8E-3581-4CE4-B668-7DDDAC329C4D}" name="Bug Number" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8D69C21B-A7BB-4304-8301-236987C121AD}" name="Severity" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5C150876-22FD-4121-A490-99B46CBB6036}" name="Priority" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EB1438C6-654F-40BA-9998-31E8D6A743B5}" name="File Path" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{330FB4C8-6568-4F4B-A46C-D9CDF1B7D1DC}" name="Line Number" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{BCD87986-722D-4A23-846E-92BCC7B44324}" name="Reporter" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{FCCBA51F-A4D8-457C-9F84-8B23511D7001}" name="Status" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D4F8EA49-817B-41C3-9641-E9AAC20813B0}" name="Fixer" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -866,7 +623,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +631,7 @@
     <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -889,93 +646,111 @@
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -983,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -994,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1015,21 +790,21 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Fixed">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Fixed">
       <formula>NOT(ISERROR(SEARCH("Fixed",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C31">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Mid">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Mid">
       <formula>NOT(ISERROR(SEARCH("Mid",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
